--- a/public/assets/file/format_rombel.xlsx
+++ b/public/assets/file/format_rombel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_82\htdocs\yppt-lms\public\assets\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_82\htdocs\cbt\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4409D3-8C6B-4ED9-8FA6-D51C771C82A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA45AA-7ABC-402F-95EE-98D593DBC014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" xr2:uid="{154A1B48-296D-4C24-A4E8-60D8EF17BCA6}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="16630" windowHeight="8170" xr2:uid="{154A1B48-296D-4C24-A4E8-60D8EF17BCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>nama rombel</t>
   </si>
@@ -45,19 +45,7 @@
     <t>tahun pelajaran id</t>
   </si>
   <si>
-    <t>wali kelas id</t>
-  </si>
-  <si>
-    <t>nama wali kelas</t>
-  </si>
-  <si>
     <t>Referensi</t>
-  </si>
-  <si>
-    <t>kurikulum id</t>
-  </si>
-  <si>
-    <t>kurikulum</t>
   </si>
 </sst>
 </file>
@@ -428,76 +416,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4781DE44-0772-426A-936C-CEA8FA05C31D}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
